--- a/examples/masterarbeit/experiments_yale.xlsx
+++ b/examples/masterarbeit/experiments_yale.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Documents\PySyft-fork\examples\masterarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD3CE35-39BF-4592-96AD-E2BE8B0AB240}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23689FAD-A0A2-49C7-ABD8-5DCEB1C497BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{C11075B9-7AA2-416A-A2BB-E8EDCD451B3E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="33">
   <si>
     <t>Merge strategy</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>ONGOING</t>
+  </si>
+  <si>
+    <t>exp_yale_20200116-123756</t>
+  </si>
+  <si>
+    <t>exp_yale_20200116-180854</t>
   </si>
 </sst>
 </file>
@@ -536,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A100B0B-FE3B-4C26-A276-BE253BBFC4CB}">
-  <dimension ref="A1:J71"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -741,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -768,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>10</v>
@@ -786,70 +792,72 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13">
-        <v>8</v>
-      </c>
-      <c r="C13">
+    <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
         <v>0</v>
       </c>
-      <c r="D13">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13"/>
+      <c r="D13" s="1">
+        <v>32</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14">
-        <v>8</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" t="s">
-        <v>16</v>
-      </c>
       <c r="J14"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
       <c r="J15"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" t="s">
+        <v>16</v>
       </c>
       <c r="J16"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -863,7 +871,7 @@
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F17" t="s">
         <v>16</v>
@@ -874,9 +882,9 @@
       <c r="H17" t="s">
         <v>16</v>
       </c>
-      <c r="J17"/>
-    </row>
-    <row r="18" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I17"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -890,7 +898,7 @@
         <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
@@ -901,14 +909,14 @@
       <c r="H18" t="s">
         <v>16</v>
       </c>
-      <c r="I18"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J18"/>
+    </row>
+    <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -917,7 +925,7 @@
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F19" t="s">
         <v>16</v>
@@ -928,9 +936,9 @@
       <c r="H19" t="s">
         <v>16</v>
       </c>
-      <c r="J19"/>
-    </row>
-    <row r="20" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I19"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -944,7 +952,7 @@
         <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F20" t="s">
         <v>16</v>
@@ -955,53 +963,53 @@
       <c r="H20" t="s">
         <v>16</v>
       </c>
-      <c r="I20"/>
+      <c r="J20"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21">
-        <v>5</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>8</v>
-      </c>
-      <c r="E21" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" t="s">
-        <v>16</v>
-      </c>
       <c r="J21"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="J22"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
       <c r="J23"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <v>100</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" t="s">
+        <v>15</v>
       </c>
       <c r="J24"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" s="3" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>8</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1021,14 +1029,14 @@
       <c r="H25" t="s">
         <v>15</v>
       </c>
-      <c r="J25"/>
-    </row>
-    <row r="26" spans="1:10" s="3" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I25"/>
+    </row>
+    <row r="26" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>8</v>
       </c>
       <c r="B26">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1050,95 +1058,95 @@
       </c>
       <c r="I26"/>
     </row>
-    <row r="27" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27">
+    <row r="27" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="1">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>32</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="1">
+        <v>100</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>32</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28">
+        <v>100</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J29"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
         <v>19</v>
       </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>8</v>
-      </c>
-      <c r="E27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27">
-        <v>100</v>
-      </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27"/>
-    </row>
-    <row r="28" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="1">
-        <v>4</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1">
-        <v>8</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="1">
-        <v>100</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29">
-        <v>7</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>8</v>
-      </c>
-      <c r="E29" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29">
-        <v>100</v>
-      </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="J30"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <v>25</v>
+      </c>
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" t="s">
+        <v>15</v>
       </c>
       <c r="J31"/>
     </row>
@@ -1159,7 +1167,7 @@
         <v>10</v>
       </c>
       <c r="F32">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G32" t="s">
         <v>12</v>
@@ -1186,7 +1194,7 @@
         <v>10</v>
       </c>
       <c r="F33">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G33" t="s">
         <v>12</v>
@@ -1194,7 +1202,6 @@
       <c r="H33" t="s">
         <v>15</v>
       </c>
-      <c r="J33"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
@@ -1213,7 +1220,7 @@
         <v>10</v>
       </c>
       <c r="F34">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="G34" t="s">
         <v>12</v>
@@ -1224,7 +1231,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -1239,14 +1246,15 @@
         <v>10</v>
       </c>
       <c r="F35">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="G35" t="s">
         <v>12</v>
       </c>
       <c r="H35" t="s">
-        <v>15</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="J35"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
@@ -1265,7 +1273,7 @@
         <v>10</v>
       </c>
       <c r="F36">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G36" t="s">
         <v>12</v>
@@ -1292,7 +1300,7 @@
         <v>10</v>
       </c>
       <c r="F37">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G37" t="s">
         <v>12</v>
@@ -1302,74 +1310,75 @@
       </c>
       <c r="J37"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38">
-        <v>4</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>8</v>
-      </c>
-      <c r="E38" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38">
-        <v>75</v>
-      </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
-      <c r="H38" t="s">
-        <v>16</v>
-      </c>
-      <c r="J38"/>
+    <row r="38" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="1">
+        <v>4</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1">
+        <v>32</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="1">
+        <v>100</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39">
-        <v>4</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>8</v>
-      </c>
-      <c r="E39" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39">
-        <v>100</v>
-      </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
-      <c r="H39" t="s">
-        <v>16</v>
-      </c>
       <c r="J39"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="J40"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="J41"/>
+      <c r="A41" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>22</v>
+        <v>8</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>8</v>
+      </c>
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42">
+        <v>100</v>
+      </c>
+      <c r="G42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B43">
         <v>4</v>
@@ -1390,15 +1399,15 @@
         <v>12</v>
       </c>
       <c r="H43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B44">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1416,12 +1425,12 @@
         <v>12</v>
       </c>
       <c r="H44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B45">
         <v>9</v>
@@ -1442,45 +1451,46 @@
         <v>12</v>
       </c>
       <c r="H45" t="s">
-        <v>15</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="J45"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
-        <v>9</v>
-      </c>
-      <c r="B46">
-        <v>9</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>8</v>
-      </c>
-      <c r="E46" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46">
-        <v>100</v>
-      </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
-      <c r="H46" t="s">
-        <v>16</v>
-      </c>
       <c r="J46"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="J47"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>21</v>
+      </c>
       <c r="J48"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>8</v>
+      </c>
+      <c r="E49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49">
+        <v>25</v>
+      </c>
+      <c r="G49" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" t="s">
+        <v>16</v>
       </c>
       <c r="J49"/>
     </row>
@@ -1501,7 +1511,7 @@
         <v>10</v>
       </c>
       <c r="F50">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G50" t="s">
         <v>12</v>
@@ -1528,7 +1538,7 @@
         <v>10</v>
       </c>
       <c r="F51">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G51" t="s">
         <v>12</v>
@@ -1539,28 +1549,28 @@
       <c r="J51"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
-        <v>9</v>
-      </c>
-      <c r="B52">
-        <v>4</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>8</v>
-      </c>
-      <c r="E52" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52">
-        <v>100</v>
-      </c>
-      <c r="G52" t="s">
-        <v>12</v>
-      </c>
-      <c r="H52" t="s">
+      <c r="A52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="3">
+        <v>4</v>
+      </c>
+      <c r="C52" s="3">
+        <v>1</v>
+      </c>
+      <c r="D52" s="3">
+        <v>8</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H52" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J52"/>
@@ -1582,7 +1592,7 @@
         <v>10</v>
       </c>
       <c r="F53" s="3">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>25</v>
@@ -1609,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="F54" s="3">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>25</v>
@@ -1636,7 +1646,7 @@
         <v>10</v>
       </c>
       <c r="F55" s="3">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>25</v>
@@ -1663,7 +1673,7 @@
         <v>10</v>
       </c>
       <c r="F56" s="3">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>25</v>
@@ -1678,7 +1688,7 @@
         <v>9</v>
       </c>
       <c r="B57" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C57" s="3">
         <v>1</v>
@@ -1690,7 +1700,7 @@
         <v>10</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>25</v>
@@ -1717,7 +1727,7 @@
         <v>10</v>
       </c>
       <c r="F58" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>25</v>
@@ -1728,30 +1738,6 @@
       <c r="J58"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A59" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B59" s="3">
-        <v>6</v>
-      </c>
-      <c r="C59" s="3">
-        <v>1</v>
-      </c>
-      <c r="D59" s="3">
-        <v>8</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F59" s="3">
-        <v>100</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J59"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.4">
@@ -1786,9 +1772,6 @@
     </row>
     <row r="70" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J70"/>
-    </row>
-    <row r="71" spans="10:10" x14ac:dyDescent="0.4">
-      <c r="J71"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/examples/masterarbeit/experiments_yale.xlsx
+++ b/examples/masterarbeit/experiments_yale.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Documents\PySyft-fork\examples\masterarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23689FAD-A0A2-49C7-ABD8-5DCEB1C497BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA88DDF-B454-4174-B3BD-42EE539A3CDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{C11075B9-7AA2-416A-A2BB-E8EDCD451B3E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="41">
   <si>
     <t>Merge strategy</t>
   </si>
@@ -120,23 +120,47 @@
     <t>1,4,5,6,9,10,19,20</t>
   </si>
   <si>
-    <t>exp_yale_20200114-104429</t>
-  </si>
-  <si>
-    <t>ONGOING</t>
-  </si>
-  <si>
     <t>exp_yale_20200116-123756</t>
   </si>
   <si>
     <t>exp_yale_20200116-180854</t>
+  </si>
+  <si>
+    <t>exp_yale_20200116-104619</t>
+  </si>
+  <si>
+    <t>exp_yale_20200117-171139</t>
+  </si>
+  <si>
+    <t>exp_yale_20200117-095427</t>
+  </si>
+  <si>
+    <t>exp_yale_20200119-094913</t>
+  </si>
+  <si>
+    <t>NO RESULT - TO FEW BATCHES</t>
+  </si>
+  <si>
+    <t>unnötig?</t>
+  </si>
+  <si>
+    <t>funktioniert, overfitted aber irgendwann</t>
+  </si>
+  <si>
+    <t>funktioniert</t>
+  </si>
+  <si>
+    <t>funktioniert, number total batches: 6, number of malicious batches: 3</t>
+  </si>
+  <si>
+    <t>ONGOING (exp_yale_20200120-125642)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,8 +196,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,6 +226,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -215,21 +263,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Berechnung" xfId="2" builtinId="22"/>
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
+    <cellStyle name="Schlecht" xfId="4" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -542,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A100B0B-FE3B-4C26-A276-BE253BBFC4CB}">
-  <dimension ref="A1:J70"/>
+  <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -558,7 +619,7 @@
     <col min="7" max="7" width="18.15234375" customWidth="1"/>
     <col min="8" max="8" width="12.69140625" customWidth="1"/>
     <col min="9" max="9" width="3.3046875" customWidth="1"/>
-    <col min="10" max="10" width="30.3046875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="37.3046875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
@@ -789,7 +850,7 @@
         <v>16</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -818,7 +879,7 @@
         <v>16</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
@@ -1084,7 +1145,7 @@
         <v>16</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -1177,7 +1238,7 @@
       </c>
       <c r="J32"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -1203,7 +1264,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -1229,7 +1290,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -1240,7 +1301,7 @@
         <v>1</v>
       </c>
       <c r="D35">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E35" t="s">
         <v>10</v>
@@ -1256,7 +1317,7 @@
       </c>
       <c r="J35"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -1267,7 +1328,7 @@
         <v>1</v>
       </c>
       <c r="D36">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E36" t="s">
         <v>10</v>
@@ -1283,7 +1344,7 @@
       </c>
       <c r="J36"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -1310,7 +1371,7 @@
       </c>
       <c r="J37"/>
     </row>
-    <row r="38" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
@@ -1338,19 +1399,24 @@
       <c r="J38" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K38" s="6"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
       <c r="J39"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
       <c r="J40"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -1376,7 +1442,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -1402,7 +1468,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -1428,7 +1494,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -1455,19 +1521,19 @@
       </c>
       <c r="J45"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
       <c r="J46"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
       <c r="J47"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>21</v>
       </c>
       <c r="J48"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>9</v>
       </c>
@@ -1494,7 +1560,7 @@
       </c>
       <c r="J49"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -1521,7 +1587,7 @@
       </c>
       <c r="J50"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -1532,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="D51">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E51" t="s">
         <v>10</v>
@@ -1548,212 +1614,259 @@
       </c>
       <c r="J51"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A52" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B52" s="3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J52"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J53"/>
+    </row>
+    <row r="54" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="1">
         <v>4</v>
       </c>
-      <c r="C52" s="3">
-        <v>1</v>
-      </c>
-      <c r="D52" s="3">
-        <v>8</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" s="3">
-        <v>12.5</v>
-      </c>
-      <c r="G52" s="3" t="s">
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1">
+        <v>32</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="1">
+        <v>50</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J52"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A53" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B53" s="3">
+      <c r="H54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K54" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="1">
         <v>4</v>
       </c>
-      <c r="C53" s="3">
-        <v>1</v>
-      </c>
-      <c r="D53" s="3">
-        <v>8</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F53" s="3">
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1">
+        <v>32</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="1">
+        <v>100</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="H55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J56"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J57"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58">
+        <v>9</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>8</v>
+      </c>
+      <c r="E58" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58">
         <v>25</v>
       </c>
-      <c r="H53" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J53"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A54" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B54" s="3">
-        <v>4</v>
-      </c>
-      <c r="C54" s="3">
-        <v>1</v>
-      </c>
-      <c r="D54" s="3">
-        <v>8</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" s="3">
+      <c r="G58" t="s">
+        <v>25</v>
+      </c>
+      <c r="H58" t="s">
+        <v>16</v>
+      </c>
+      <c r="J58"/>
+    </row>
+    <row r="59" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" s="5">
+        <v>9</v>
+      </c>
+      <c r="C59" s="5">
+        <v>1</v>
+      </c>
+      <c r="D59" s="5">
+        <v>8</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="5">
         <v>50</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="G59" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J54"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A55" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B55" s="3">
-        <v>4</v>
-      </c>
-      <c r="C55" s="3">
-        <v>1</v>
-      </c>
-      <c r="D55" s="3">
-        <v>8</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F55" s="3">
-        <v>75</v>
-      </c>
-      <c r="G55" s="3" t="s">
+      <c r="H59" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60">
+        <v>9</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>8</v>
+      </c>
+      <c r="E60" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60">
+        <v>100</v>
+      </c>
+      <c r="G60" t="s">
         <v>25</v>
       </c>
-      <c r="H55" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J55"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A56" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B56" s="3">
-        <v>4</v>
-      </c>
-      <c r="C56" s="3">
-        <v>1</v>
-      </c>
-      <c r="D56" s="3">
-        <v>8</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F56" s="3">
+      <c r="H60" t="s">
+        <v>16</v>
+      </c>
+      <c r="J60" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J61"/>
+    </row>
+    <row r="62" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" s="9">
+        <v>9</v>
+      </c>
+      <c r="C62" s="9">
+        <v>1</v>
+      </c>
+      <c r="D62" s="9">
+        <v>32</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="9">
+        <v>25</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J62" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="9">
+        <v>9</v>
+      </c>
+      <c r="C63" s="9">
+        <v>1</v>
+      </c>
+      <c r="D63" s="9">
+        <v>32</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="9">
+        <v>50</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="1">
+        <v>9</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1</v>
+      </c>
+      <c r="D64" s="1">
+        <v>32</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" s="1">
         <v>100</v>
       </c>
-      <c r="G56" s="3" t="s">
+      <c r="G64" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H56" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J56"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A57" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B57" s="3">
-        <v>6</v>
-      </c>
-      <c r="C57" s="3">
-        <v>1</v>
-      </c>
-      <c r="D57" s="3">
-        <v>8</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F57" s="3">
-        <v>50</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J57"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A58" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B58" s="3">
-        <v>6</v>
-      </c>
-      <c r="C58" s="3">
-        <v>1</v>
-      </c>
-      <c r="D58" s="3">
-        <v>8</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" s="3">
-        <v>100</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J58"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="J59"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="J60"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="J61"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="J62"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="J63"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="J64"/>
+      <c r="H64" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="65" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J65"/>
@@ -1772,6 +1885,24 @@
     </row>
     <row r="70" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J70"/>
+    </row>
+    <row r="71" spans="10:10" x14ac:dyDescent="0.4">
+      <c r="J71"/>
+    </row>
+    <row r="72" spans="10:10" x14ac:dyDescent="0.4">
+      <c r="J72"/>
+    </row>
+    <row r="73" spans="10:10" x14ac:dyDescent="0.4">
+      <c r="J73"/>
+    </row>
+    <row r="74" spans="10:10" x14ac:dyDescent="0.4">
+      <c r="J74"/>
+    </row>
+    <row r="75" spans="10:10" x14ac:dyDescent="0.4">
+      <c r="J75"/>
+    </row>
+    <row r="76" spans="10:10" x14ac:dyDescent="0.4">
+      <c r="J76"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/examples/masterarbeit/experiments_yale.xlsx
+++ b/examples/masterarbeit/experiments_yale.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Documents\PySyft-fork\examples\masterarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA88DDF-B454-4174-B3BD-42EE539A3CDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BE70BD-17E3-4D8E-B8FD-A826354C3DE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{C11075B9-7AA2-416A-A2BB-E8EDCD451B3E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="47">
   <si>
     <t>Merge strategy</t>
   </si>
@@ -93,27 +93,15 @@
     <t>Experiments on % of poisoned data</t>
   </si>
   <si>
-    <t>Experiments on data distribution:</t>
-  </si>
-  <si>
     <t>Experiments on attack model</t>
   </si>
   <si>
-    <t>Experiments on merge strategy</t>
-  </si>
-  <si>
     <t>name_of_result</t>
   </si>
   <si>
-    <t>20% classes on 20% data on 20% clients exclusively</t>
-  </si>
-  <si>
     <t>replacement</t>
   </si>
   <si>
-    <t>50% classes on 50% data on 20% clients exclusively</t>
-  </si>
-  <si>
     <t>50% classes only on 20% clients</t>
   </si>
   <si>
@@ -153,7 +141,37 @@
     <t>funktioniert, number total batches: 6, number of malicious batches: 3</t>
   </si>
   <si>
-    <t>ONGOING (exp_yale_20200120-125642)</t>
+    <t>total:4, malicious: 1</t>
+  </si>
+  <si>
+    <t>exp_yale_20200122-211037</t>
+  </si>
+  <si>
+    <t>TATOO</t>
+  </si>
+  <si>
+    <t>exp_yale_20200123-081530</t>
+  </si>
+  <si>
+    <t>exp_yale_20200123-161525</t>
+  </si>
+  <si>
+    <t>kein backdoor introduced</t>
+  </si>
+  <si>
+    <t>exp_yale_20200123-215554</t>
+  </si>
+  <si>
+    <t>exp_yale_20200124-073314</t>
+  </si>
+  <si>
+    <t>exp_yale_20200120-125642</t>
+  </si>
+  <si>
+    <t>keine guten resultate</t>
+  </si>
+  <si>
+    <t>TODO</t>
   </si>
 </sst>
 </file>
@@ -270,20 +288,13 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4"/>
   </cellXfs>
   <cellStyles count="5">
@@ -603,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A100B0B-FE3B-4C26-A276-BE253BBFC4CB}">
-  <dimension ref="A1:O76"/>
+  <dimension ref="A1:R66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H72" sqref="H72"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64:XFD64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -648,7 +659,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
@@ -656,7 +667,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -705,7 +716,7 @@
         <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F4">
         <v>100</v>
@@ -850,7 +861,7 @@
         <v>16</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -879,166 +890,168 @@
         <v>16</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="J14"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
       <c r="J15"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16">
-        <v>10</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J16"/>
     </row>
-    <row r="17" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>8</v>
       </c>
       <c r="B17">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>100</v>
       </c>
       <c r="G17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+        <v>15</v>
+      </c>
+      <c r="J17"/>
+    </row>
+    <row r="18" spans="1:18" s="3" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>8</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <v>8</v>
       </c>
       <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>100</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18"/>
+    </row>
+    <row r="19" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>100</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19"/>
+    </row>
+    <row r="20" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="1">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>32</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="1">
+        <v>100</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18"/>
-    </row>
-    <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19">
-        <v>5</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>8</v>
-      </c>
-      <c r="E19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20">
-        <v>5</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>8</v>
-      </c>
-      <c r="E20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="J21"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    </row>
+    <row r="21" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>32</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <v>100</v>
+      </c>
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
       <c r="J22"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J23"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1055,7 +1068,7 @@
         <v>10</v>
       </c>
       <c r="F24">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="G24" t="s">
         <v>12</v>
@@ -1065,12 +1078,12 @@
       </c>
       <c r="J24"/>
     </row>
-    <row r="25" spans="1:10" s="3" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>8</v>
       </c>
       <c r="B25">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1082,7 +1095,7 @@
         <v>10</v>
       </c>
       <c r="F25">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G25" t="s">
         <v>12</v>
@@ -1090,14 +1103,14 @@
       <c r="H25" t="s">
         <v>15</v>
       </c>
-      <c r="I25"/>
-    </row>
-    <row r="26" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="J25"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>8</v>
       </c>
       <c r="B26">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1109,7 +1122,7 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G26" t="s">
         <v>12</v>
@@ -1117,43 +1130,39 @@
       <c r="H26" t="s">
         <v>15</v>
       </c>
-      <c r="I26"/>
-    </row>
-    <row r="27" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="1">
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27">
         <v>4</v>
       </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1">
-        <v>32</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="1">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27">
         <v>100</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" t="s">
         <v>12</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>9</v>
       </c>
       <c r="B28">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1165,7 +1174,7 @@
         <v>10</v>
       </c>
       <c r="F28">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="G28" t="s">
         <v>12</v>
@@ -1173,151 +1182,115 @@
       <c r="H28" t="s">
         <v>16</v>
       </c>
-      <c r="I28"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J28"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>32</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <v>50</v>
+      </c>
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" t="s">
+        <v>16</v>
+      </c>
       <c r="J29"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30">
+        <v>75</v>
+      </c>
+      <c r="G30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" t="s">
+        <v>16</v>
       </c>
       <c r="J30"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31">
+    <row r="31" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="1">
         <v>4</v>
       </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>8</v>
-      </c>
-      <c r="E31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31">
-        <v>25</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>32</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="1">
+        <v>100</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H31" t="s">
-        <v>15</v>
-      </c>
-      <c r="J31"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32">
-        <v>4</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>8</v>
-      </c>
-      <c r="E32" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32">
-        <v>50</v>
-      </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
-      <c r="H32" t="s">
-        <v>15</v>
-      </c>
+      <c r="H31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
       <c r="J32"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33">
-        <v>4</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>8</v>
-      </c>
-      <c r="E33" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33">
-        <v>75</v>
-      </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34">
-        <v>4</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>8</v>
-      </c>
-      <c r="E34" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34">
-        <v>100</v>
-      </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H34" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="J33"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="J34"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35">
-        <v>4</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>32</v>
-      </c>
-      <c r="E35" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35">
-        <v>25</v>
-      </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H35" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J35"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -1328,13 +1301,13 @@
         <v>1</v>
       </c>
       <c r="D36">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="E36" t="s">
         <v>10</v>
       </c>
       <c r="F36">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G36" t="s">
         <v>12</v>
@@ -1344,7 +1317,7 @@
       </c>
       <c r="J36"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -1361,7 +1334,7 @@
         <v>10</v>
       </c>
       <c r="F37">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="G37" t="s">
         <v>12</v>
@@ -1369,290 +1342,403 @@
       <c r="H37" t="s">
         <v>16</v>
       </c>
-      <c r="J37"/>
-    </row>
-    <row r="38" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" s="1">
+      <c r="J37" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38">
         <v>4</v>
       </c>
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
-      <c r="D38" s="1">
-        <v>32</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="1">
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>8</v>
+      </c>
+      <c r="E38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38">
         <v>100</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" t="s">
         <v>12</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J38" s="1" t="s">
+      <c r="H38" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38"/>
+    </row>
+    <row r="39" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="1">
+        <v>4</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1">
+        <v>32</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="1">
+        <v>25</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K39" t="s">
+        <v>36</v>
+      </c>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+    </row>
+    <row r="40" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="1">
+        <v>4</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1">
+        <v>32</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="1">
+        <v>50</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J40" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K38" s="6"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="J39"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="J40"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
+      <c r="K40" t="s">
+        <v>35</v>
+      </c>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+    </row>
+    <row r="41" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="1">
+        <v>4</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1">
+        <v>32</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="1">
+        <v>100</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42">
-        <v>4</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>8</v>
-      </c>
-      <c r="E42" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42">
+      <c r="H41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K41" t="s">
+        <v>33</v>
+      </c>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="J42"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="J43"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44">
+        <v>9</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>8</v>
+      </c>
+      <c r="E44" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44">
+        <v>25</v>
+      </c>
+      <c r="G44" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" t="s">
+        <v>16</v>
+      </c>
+      <c r="J44"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45">
+        <v>9</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>8</v>
+      </c>
+      <c r="E45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45">
+        <v>50</v>
+      </c>
+      <c r="G45" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" t="s">
+        <v>16</v>
+      </c>
+      <c r="J45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46">
+        <v>9</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>8</v>
+      </c>
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46">
         <v>100</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
-      <c r="H42" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
-        <v>9</v>
-      </c>
-      <c r="B43">
-        <v>4</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>8</v>
-      </c>
-      <c r="E43" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43">
+      <c r="G46" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" t="s">
+        <v>16</v>
+      </c>
+      <c r="J46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="6">
+        <v>9</v>
+      </c>
+      <c r="C47" s="6">
+        <v>1</v>
+      </c>
+      <c r="D47" s="6">
+        <v>32</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="6">
+        <v>25</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="R47"/>
+    </row>
+    <row r="48" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="6">
+        <v>9</v>
+      </c>
+      <c r="C48" s="6">
+        <v>1</v>
+      </c>
+      <c r="D48" s="6">
+        <v>32</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="6">
+        <v>50</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49">
+        <v>9</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>32</v>
+      </c>
+      <c r="E49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49">
+        <v>75</v>
+      </c>
+      <c r="G49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H49" t="s">
+        <v>16</v>
+      </c>
+      <c r="J49" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="1">
+        <v>9</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1">
+        <v>32</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="1">
         <v>100</v>
       </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
-      <c r="H43" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44">
-        <v>9</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>8</v>
-      </c>
-      <c r="E44" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44">
-        <v>100</v>
-      </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
-      <c r="H44" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
-        <v>9</v>
-      </c>
-      <c r="B45">
-        <v>9</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>8</v>
-      </c>
-      <c r="E45" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45">
-        <v>100</v>
-      </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
-      <c r="H45" t="s">
-        <v>16</v>
-      </c>
-      <c r="J45"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="J46"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="J47"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
-        <v>21</v>
-      </c>
-      <c r="J48"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A49" t="s">
-        <v>9</v>
-      </c>
-      <c r="B49">
-        <v>4</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49">
-        <v>8</v>
-      </c>
-      <c r="E49" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49">
-        <v>25</v>
-      </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
-      <c r="H49" t="s">
-        <v>16</v>
-      </c>
-      <c r="J49"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
-        <v>9</v>
-      </c>
-      <c r="B50">
-        <v>4</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50">
-        <v>8</v>
-      </c>
-      <c r="E50" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50">
-        <v>50</v>
-      </c>
-      <c r="G50" t="s">
-        <v>12</v>
-      </c>
-      <c r="H50" t="s">
-        <v>16</v>
-      </c>
-      <c r="J50"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
-        <v>9</v>
-      </c>
-      <c r="B51">
-        <v>4</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>32</v>
-      </c>
-      <c r="E51" t="s">
-        <v>10</v>
-      </c>
-      <c r="F51">
-        <v>100</v>
-      </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
-      <c r="H51" t="s">
-        <v>16</v>
-      </c>
+      <c r="G50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K50" t="s">
+        <v>34</v>
+      </c>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.4">
       <c r="J51"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.4">
       <c r="J52"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.4">
       <c r="J53"/>
     </row>
-    <row r="54" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B54" s="1">
-        <v>4</v>
-      </c>
-      <c r="C54" s="1">
-        <v>1</v>
-      </c>
-      <c r="D54" s="1">
-        <v>32</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" s="1">
-        <v>50</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K54" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>38</v>
+      </c>
+      <c r="J54"/>
+    </row>
+    <row r="55" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
         <v>9</v>
       </c>
@@ -1669,240 +1755,300 @@
         <v>10</v>
       </c>
       <c r="F55" s="1">
+        <v>25</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+    </row>
+    <row r="56" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" s="1">
+        <v>4</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1">
+        <v>32</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="1">
+        <v>50</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K56" t="s">
+        <v>41</v>
+      </c>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56"/>
+      <c r="R56"/>
+    </row>
+    <row r="57" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="1">
+        <v>4</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+      <c r="D57" s="1">
+        <v>32</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="1">
+        <v>75</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57"/>
+      <c r="R57"/>
+    </row>
+    <row r="58" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="1">
+        <v>4</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1">
+        <v>32</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="1">
         <v>100</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G58" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="J60"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61">
+        <v>9</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>8</v>
+      </c>
+      <c r="E61" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61">
         <v>25</v>
       </c>
-      <c r="H55" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="J56"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="J57"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A58" t="s">
-        <v>9</v>
-      </c>
-      <c r="B58">
-        <v>9</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <v>8</v>
-      </c>
-      <c r="E58" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58">
+      <c r="G61" t="s">
+        <v>22</v>
+      </c>
+      <c r="H61" t="s">
+        <v>16</v>
+      </c>
+      <c r="J61"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62">
+        <v>9</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>8</v>
+      </c>
+      <c r="E62" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62">
+        <v>50</v>
+      </c>
+      <c r="G62" t="s">
+        <v>22</v>
+      </c>
+      <c r="H62" t="s">
+        <v>16</v>
+      </c>
+      <c r="J62"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63">
+        <v>9</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>8</v>
+      </c>
+      <c r="E63" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63">
+        <v>100</v>
+      </c>
+      <c r="G63" t="s">
+        <v>22</v>
+      </c>
+      <c r="H63" t="s">
+        <v>16</v>
+      </c>
+      <c r="J63"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64">
+        <v>9</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>32</v>
+      </c>
+      <c r="E64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64">
         <v>25</v>
       </c>
-      <c r="G58" t="s">
-        <v>25</v>
-      </c>
-      <c r="H58" t="s">
-        <v>16</v>
-      </c>
-      <c r="J58"/>
-    </row>
-    <row r="59" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B59" s="5">
-        <v>9</v>
-      </c>
-      <c r="C59" s="5">
-        <v>1</v>
-      </c>
-      <c r="D59" s="5">
-        <v>8</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F59" s="5">
+      <c r="G64" t="s">
+        <v>22</v>
+      </c>
+      <c r="H64" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65">
+        <v>9</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>32</v>
+      </c>
+      <c r="E65" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65">
         <v>50</v>
       </c>
-      <c r="G59" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J59" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A60" t="s">
-        <v>9</v>
-      </c>
-      <c r="B60">
-        <v>9</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60">
-        <v>8</v>
-      </c>
-      <c r="E60" t="s">
-        <v>10</v>
-      </c>
-      <c r="F60">
+      <c r="G65" t="s">
+        <v>22</v>
+      </c>
+      <c r="H65" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66">
+        <v>9</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>32</v>
+      </c>
+      <c r="E66" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66">
         <v>100</v>
       </c>
-      <c r="G60" t="s">
-        <v>25</v>
-      </c>
-      <c r="H60" t="s">
-        <v>16</v>
-      </c>
-      <c r="J60" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="J61"/>
-    </row>
-    <row r="62" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B62" s="9">
-        <v>9</v>
-      </c>
-      <c r="C62" s="9">
-        <v>1</v>
-      </c>
-      <c r="D62" s="9">
-        <v>32</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" s="9">
-        <v>25</v>
-      </c>
-      <c r="G62" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H62" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J62" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B63" s="9">
-        <v>9</v>
-      </c>
-      <c r="C63" s="9">
-        <v>1</v>
-      </c>
-      <c r="D63" s="9">
-        <v>32</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F63" s="9">
-        <v>50</v>
-      </c>
-      <c r="G63" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H63" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J63" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B64" s="1">
-        <v>9</v>
-      </c>
-      <c r="C64" s="1">
-        <v>1</v>
-      </c>
-      <c r="D64" s="1">
-        <v>32</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F64" s="1">
-        <v>100</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="65" spans="10:10" x14ac:dyDescent="0.4">
-      <c r="J65"/>
-    </row>
-    <row r="66" spans="10:10" x14ac:dyDescent="0.4">
-      <c r="J66"/>
-    </row>
-    <row r="67" spans="10:10" x14ac:dyDescent="0.4">
-      <c r="J67"/>
-    </row>
-    <row r="68" spans="10:10" x14ac:dyDescent="0.4">
-      <c r="J68"/>
-    </row>
-    <row r="69" spans="10:10" x14ac:dyDescent="0.4">
-      <c r="J69"/>
-    </row>
-    <row r="70" spans="10:10" x14ac:dyDescent="0.4">
-      <c r="J70"/>
-    </row>
-    <row r="71" spans="10:10" x14ac:dyDescent="0.4">
-      <c r="J71"/>
-    </row>
-    <row r="72" spans="10:10" x14ac:dyDescent="0.4">
-      <c r="J72"/>
-    </row>
-    <row r="73" spans="10:10" x14ac:dyDescent="0.4">
-      <c r="J73"/>
-    </row>
-    <row r="74" spans="10:10" x14ac:dyDescent="0.4">
-      <c r="J74"/>
-    </row>
-    <row r="75" spans="10:10" x14ac:dyDescent="0.4">
-      <c r="J75"/>
-    </row>
-    <row r="76" spans="10:10" x14ac:dyDescent="0.4">
-      <c r="J76"/>
+      <c r="G66" t="s">
+        <v>22</v>
+      </c>
+      <c r="H66" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/examples/masterarbeit/experiments_yale.xlsx
+++ b/examples/masterarbeit/experiments_yale.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Documents\PySyft-fork\examples\masterarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BE70BD-17E3-4D8E-B8FD-A826354C3DE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193EFB9F-E1D6-41A3-B4B6-BAC20D1C6B02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{C11075B9-7AA2-416A-A2BB-E8EDCD451B3E}"/>
   </bookViews>
@@ -616,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A100B0B-FE3B-4C26-A276-BE253BBFC4CB}">
   <dimension ref="A1:R66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64:XFD64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
